--- a/ejercicio 11.xlsx
+++ b/ejercicio 11.xlsx
@@ -456,10 +456,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -467,10 +467,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -478,10 +478,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -489,10 +489,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -500,10 +500,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -511,10 +511,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -522,10 +522,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -533,7 +533,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -544,10 +544,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -555,10 +555,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -566,7 +566,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -577,10 +577,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -588,10 +588,10 @@
         <v>14</v>
       </c>
       <c r="B14">
+        <v>15</v>
+      </c>
+      <c r="C14">
         <v>16</v>
-      </c>
-      <c r="C14">
-        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -599,10 +599,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -610,10 +610,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -621,10 +621,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -632,10 +632,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -643,10 +643,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -654,10 +654,10 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -665,10 +665,10 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
